--- a/target/classes/readTest.xlsx
+++ b/target/classes/readTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abraartishan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abraartishan/Desktop/TOPA_QA/CODE BASE/ExcelReaderprojectApachePOI/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2B98A-8D3E-D048-B22E-06CB480C8D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAC4D39-0082-5143-BD62-BA1B1C824986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{381541B9-E145-BE46-A2D0-0023F597E6C3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Topa2</t>
+  </si>
+  <si>
+    <t>Toma</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19FDDC-8E1A-BB4C-B598-CA0C1012053C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,6 +430,14 @@
         <v>345</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
